--- a/consolidado/lista_imagens.xlsx
+++ b/consolidado/lista_imagens.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A699"/>
+  <dimension ref="A1:A738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,4499 +816,4772 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>114010.png</t>
+          <t>1118.png</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>11438.png</t>
+          <t>1119.png</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1148.png</t>
+          <t>114010.png</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>11484.png</t>
+          <t>11409(2).png</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>11485.png</t>
+          <t>11409.png</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>11497(1).png</t>
+          <t>11410(2).png</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>11497(2).png</t>
+          <t>11422(1).png</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>11497(3).png</t>
+          <t>11438.png</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>11497.png</t>
+          <t>11464.png</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1170.png</t>
+          <t>11466.png</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1171.png</t>
+          <t>11467.png</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>11922.png</t>
+          <t>11477.png</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>11923(2).png</t>
+          <t>1148.png</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>11926(2).png</t>
+          <t>11484.png</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1214.png</t>
+          <t>11485.png</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1252.png</t>
+          <t>11497(1).png</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1253.png</t>
+          <t>11497(2).png</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1255(1).png</t>
+          <t>11497(3).png</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1255.png</t>
+          <t>11497.png</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1258.png</t>
+          <t>1170.png</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1268(1).png</t>
+          <t>1171.png</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1268.png</t>
+          <t>11922.png</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1270.png</t>
+          <t>11923(2).png</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1271.png</t>
+          <t>11926(2).png</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1274.png</t>
+          <t>1211.png</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1275.png</t>
+          <t>1212.png</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1276.png</t>
+          <t>1213.png</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1282(1).png</t>
+          <t>1214.png</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1282(2).png</t>
+          <t>1216.png</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1287(1).png</t>
+          <t>1252.png</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1288.png</t>
+          <t>1253.png</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1289(1).png</t>
+          <t>1255(1).png</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1289(2).png</t>
+          <t>1255.png</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1292.png</t>
+          <t>1258.png</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1293.png</t>
+          <t>1265.png</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1294.png</t>
+          <t>1268(1).png</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1296.png</t>
+          <t>1268.png</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1297.png</t>
+          <t>1269.png</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1298.png</t>
+          <t>1270 .png</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1299.png</t>
+          <t>1270.png</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1300.png</t>
+          <t>1271.png</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1301(1).png</t>
+          <t>1274.png</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1301(2).png</t>
+          <t>1275.png</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1304(1).png</t>
+          <t>1276.png</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1304(2).png</t>
+          <t>1282(1).png</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1305(1).png</t>
+          <t>1282(2).png</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1305(2).png</t>
+          <t>1287(1).png</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1307.png</t>
+          <t>1288.png</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1309.png</t>
+          <t>1289(1).png</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1310.png</t>
+          <t>1289(2).png</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1311.png</t>
+          <t>1292.png</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1314.png</t>
+          <t>1293.png</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1315.png</t>
+          <t>1294.png</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1316.png</t>
+          <t>1296.png</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1318--2.png</t>
+          <t>1297.png</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1318.png</t>
+          <t>1298.png</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1319.png</t>
+          <t>1299.png</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1320.png</t>
+          <t>1300.png</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1321.png</t>
+          <t>1301(1).png</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1324.png</t>
+          <t>1301(2).png</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1326.png</t>
+          <t>1304(1).png</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1328.png</t>
+          <t>1304(2).png</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1332(1)(2).png</t>
+          <t>1305(1).png</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1332(2).png</t>
+          <t>1305(2).png</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1336(1).png</t>
+          <t>1307.png</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1336.png</t>
+          <t>1309.png</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1337(1).png</t>
+          <t>1310.png</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1337.png</t>
+          <t>1311.png</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1338(1).png</t>
+          <t>1314.png</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1338(2).png</t>
+          <t>1315.png</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1338(3).png</t>
+          <t>1316.png</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1338.png</t>
+          <t>1318--2.png</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>134.png</t>
+          <t>1318.png</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1342.png</t>
+          <t>1319.png</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1343(3).png</t>
+          <t>1320.png</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1345.png</t>
+          <t>1321.png</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1366.png</t>
+          <t>1324.png</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1397.png</t>
+          <t>1326.png</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1400.png</t>
+          <t>1328.png</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1401.png</t>
+          <t>1332(1)(2).png</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1407.png</t>
+          <t>1332(2).png</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1408(1).png</t>
+          <t>1336(1).png</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1408.png</t>
+          <t>1336.png</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1409(1).png</t>
+          <t>1337(1).png</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1409(3).png</t>
+          <t>1337.png</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1409.png</t>
+          <t>1338(1).png</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1410(1).png</t>
+          <t>1338(2).png</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1410(2).png</t>
+          <t>1338(3).png</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1410.png</t>
+          <t>1338.png</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1411(1).png</t>
+          <t>134.png</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1411.png</t>
+          <t>1342.png</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1412(1).png</t>
+          <t>1343(3).png</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1412(3).png</t>
+          <t>1345.png</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1412.png</t>
+          <t>1366.png</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1414.png</t>
+          <t>1397.png</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1415(1).png</t>
+          <t>1400.png</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1415.png</t>
+          <t>1401.png</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1422(1).png</t>
+          <t>1407.png</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1422(2).png</t>
+          <t>1408(1).png</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1423(1).png</t>
+          <t>1408.png</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1423(2)(1).png</t>
+          <t>1409(1).png</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1423(2).png</t>
+          <t>1409(3).png</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1424.png</t>
+          <t>1409.png</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1426(1).png</t>
+          <t>1410(1).png</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1426(2).png</t>
+          <t>1410(2).png</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1428.png</t>
+          <t>1410.png</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1429.png</t>
+          <t>1411(1).png</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1437.png</t>
+          <t>1411.png</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1438.png</t>
+          <t>1412(1).png</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1440(1).png</t>
+          <t>1412(3).png</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1440.png</t>
+          <t>1412.png</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1443.png</t>
+          <t>1413.png</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1444.png</t>
+          <t>1414.png</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1452.png</t>
+          <t>1415(1).png</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1453.png</t>
+          <t>1415.png</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1456(2).png</t>
+          <t>1422(1).png</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1457(1).png</t>
+          <t>1422(2).png</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1457.png</t>
+          <t>1423(1).png</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1458(1).png</t>
+          <t>1423(2)(1).png</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1458(2).png</t>
+          <t>1423(2).png</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1459(2)(1).png</t>
+          <t>1424.png</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1459(2).png</t>
+          <t>1426(1).png</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1459.png</t>
+          <t>1426(2).png</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1460.png</t>
+          <t>1428.png</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1461.png</t>
+          <t>1429.png</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1462(1).png</t>
+          <t>1437.png</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1462(2).png</t>
+          <t>1438.png</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1462(3).png</t>
+          <t>1440(1).png</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1462(4).png</t>
+          <t>1440.png</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1462.png</t>
+          <t>1443.png</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1463(2).png</t>
+          <t>1444.png</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1464(2).png</t>
+          <t>1452.png</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1464.png</t>
+          <t>1453.png</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1465.png</t>
+          <t>1456(2).png</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1466(1).png</t>
+          <t>1457(1).png</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1466(2)(1).png</t>
+          <t>1457.png</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1466(2)(2).png</t>
+          <t>1458(1).png</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1466(2).png</t>
+          <t>1458(2).png</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1467(2).png</t>
+          <t>1459(2)(1).png</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1471.png</t>
+          <t>1459(2).png</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1478.png</t>
+          <t>1459.png</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1479(2)(1).png</t>
+          <t>1460.png</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1479(2).png</t>
+          <t>1461.png</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1481(2)(1).png</t>
+          <t>1462(1).png</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1481(2).png</t>
+          <t>1462(2).png</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1483.png</t>
+          <t>1462(3).png</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1491.png</t>
+          <t>1462(4).png</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1492(1).png</t>
+          <t>1462.png</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1492.png</t>
+          <t>1463(2).png</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1498.png</t>
+          <t>1464(2).png</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1499(1).png</t>
+          <t>1464.png</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1499.png</t>
+          <t>1465.png</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>15.0.6.png</t>
+          <t>1466(1).png</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>15.3.10.png</t>
+          <t>1466(2)(1).png</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>15.3.11.png</t>
+          <t>1466(2)(2).png</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>15.3.13.png</t>
+          <t>1466(2).png</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>15.3.16.png</t>
+          <t>1467(2).png</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>15.3.2.png</t>
+          <t>1471.png</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>15.3.3.png</t>
+          <t>1478.png</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1500.png</t>
+          <t>1479(2)(1).png</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1575.png</t>
+          <t>1479(2).png</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1577.png</t>
+          <t>1481(2)(1).png</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1600.png</t>
+          <t>1481(2).png</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1601.png</t>
+          <t>1483.png</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1606(1).png</t>
+          <t>1491.png</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1610.png</t>
+          <t>1492(1).png</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1612.png</t>
+          <t>1492.png</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>19.0.10.png</t>
+          <t>1498.png</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>19.0.15.png</t>
+          <t>1499(1).png</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>19.3.13.png</t>
+          <t>1499.png</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>19.3.131.png</t>
+          <t>15.0.6.png</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>19.3.14.png</t>
+          <t>15.3.10.png</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>19.3.15.png</t>
+          <t>15.3.11.png</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>19.3.173.png</t>
+          <t>15.3.13.png</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>19.3.174(2).png</t>
+          <t>15.3.16.png</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>19.3.174.png</t>
+          <t>15.3.2.png</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>19.3.18.png</t>
+          <t>15.3.3.png</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>19.3.187(1).png</t>
+          <t>1500.png</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>19.3.187.png</t>
+          <t>1569.png</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>19.3.197(1).png</t>
+          <t>1575.png</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>19.3.197(3).png</t>
+          <t>1577.png</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>19.3.197.png</t>
+          <t>1600.png</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>19.3.25.png</t>
+          <t>1601.png</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>19.3.7--2.png</t>
+          <t>1606(1)(2).png</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>19.3.7.png</t>
+          <t>1606(1).png</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>568(4).png</t>
+          <t>1606(2).png</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>577(1).png</t>
+          <t>1610.png</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>577(2).png</t>
+          <t>1612.png</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>582(1).png</t>
+          <t>19.0.10.png</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>582(2).png</t>
+          <t>19.0.15.png</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>589(1).png</t>
+          <t>19.3.13.png</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>589(2).png</t>
+          <t>19.3.131.png</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>590.png</t>
+          <t>19.3.14.png</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>594(2).png</t>
+          <t>19.3.15.png</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>597(2).png</t>
+          <t>19.3.173.png</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>598(1).png</t>
+          <t>19.3.174 (2).png</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>598(2).png</t>
+          <t>19.3.174(2).png</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>603.png</t>
+          <t>19.3.174.png</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>606.png</t>
+          <t>19.3.18.png</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>609.png</t>
+          <t>19.3.187(1).png</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>612.png</t>
+          <t>19.3.187.png</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>613.png</t>
+          <t>19.3.197(1).png</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>614.png</t>
+          <t>19.3.197(3).png</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>615.png</t>
+          <t>19.3.197.png</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>620.png</t>
+          <t>19.3.25.png</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>624.png</t>
+          <t>19.3.7--2.png</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>628.png</t>
+          <t>19.3.7.png</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>636--2.png</t>
+          <t>2629.png</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>636.png</t>
+          <t>568(4).png</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>642.png</t>
+          <t>577(1).png</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>733.png</t>
+          <t>577(2).png</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>746.png</t>
+          <t>582(1).png</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>763A(1).png</t>
+          <t>582(2).png</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>763A.png</t>
+          <t>589(1).png</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>764.png</t>
+          <t>589(2).png</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>80.30.1.png</t>
+          <t>590.png</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>82.2.4.png</t>
+          <t>594(1).png</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>82.2.5.png</t>
+          <t>594(2).png</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>83.10.2(1).png</t>
+          <t>597(2).png</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>83.10.2(2).png</t>
+          <t>598(1).png</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>83.10.2(3).png</t>
+          <t>598(2).png</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>83.9.2.png</t>
+          <t>603.png</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>84.08.725(1).png</t>
+          <t>606.png</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>84.08.725.png</t>
+          <t>609.png</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>84.09.723(1).png</t>
+          <t>612.png</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>84.09.723(2).png</t>
+          <t>613.png</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>84.09.723.png</t>
+          <t>614.png</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>84.14.2.png</t>
+          <t>615.png</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>84.17.1.png</t>
+          <t>620.png</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>84.20.1(1).png</t>
+          <t>624.png</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>84.20.1.png</t>
+          <t>628.png</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>84.29.10.png</t>
+          <t>636--2.png</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>84.29.8.png</t>
+          <t>636.png</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>84.3.1.png</t>
+          <t>642.png</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>84.31.4(1).png</t>
+          <t>733.png</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>84.31.4(2).png</t>
+          <t>746.png</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>84.31.4(3).png</t>
+          <t>763A(1).png</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>84.4.1.png</t>
+          <t>763A.png</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>84.40.2.png</t>
+          <t>764.png</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>84.40.3.png</t>
+          <t>80.30.1.png</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>84.7.1.png</t>
+          <t>82.2.4.png</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>84.8.3.png</t>
+          <t>82.2.5.png</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>84.9.1.png</t>
+          <t>83.10.2(1).png</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>85.12.110.png</t>
+          <t>83.10.2(2).png</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>85.12.111.png</t>
+          <t>83.10.2(3).png</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>85.13.12.png</t>
+          <t>83.9.2.png</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>85.13.19(1).png</t>
+          <t>84.08.725(1).png</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>85.13.19.png</t>
+          <t>84.08.725.png</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>85.13.2.png</t>
+          <t>84.09.723(1).png</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>85.13.20.png</t>
+          <t>84.09.723(2).png</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>85.13.21.png</t>
+          <t>84.09.723.png</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>85.13.26.png</t>
+          <t>84.14.2.png</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>85.13.28.png</t>
+          <t>84.17.1.png</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>85.13.3.png</t>
+          <t>84.20.1(1).png</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>85.13.4.png</t>
+          <t>84.20.1.png</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>85.13.41.png</t>
+          <t>84.29.10.png</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>85.13.44.png</t>
+          <t>84.29.8.png</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>85.13.5.png</t>
+          <t>84.3.1.png</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>85.13.51.png</t>
+          <t>84.31.4(1).png</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>85.13.53.png</t>
+          <t>84.31.4(2).png</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>85.13.56.png</t>
+          <t>84.31.4(3).png</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>85.13.58.png</t>
+          <t>84.4.1.png</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>85.13.67.png</t>
+          <t>84.40.2.png</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>85.13.7.png</t>
+          <t>84.40.3.png</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>85.13.72.png</t>
+          <t>84.7.1.png</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>85.13.73.png</t>
+          <t>84.8.3.png</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>85.13.83.png</t>
+          <t>84.9.1.png</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>85.22.5.png</t>
+          <t>85.12.110.png</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>85.22.6.png</t>
+          <t>85.12.111.png</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>85.22.7.png</t>
+          <t>85.13.12.png</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>85.26.25(1).png</t>
+          <t>85.13.19 (1).png</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>85.26.25(2).png</t>
+          <t>85.13.19(1).png</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>85.26.25(3).png</t>
+          <t>85.13.19.png</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>85.26.25.png</t>
+          <t>85.13.2.png</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>85.26.4.png</t>
+          <t>85.13.20.png</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>85.3.1.png</t>
+          <t>85.13.21.png</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>86.28.2(1).png</t>
+          <t>85.13.26.png</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>86.28.2(2).png</t>
+          <t>85.13.28.png</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>86.28.2.png</t>
+          <t>85.13.3.png</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>86.29.1.png</t>
+          <t>85.13.4.png</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>86.29.11.png</t>
+          <t>85.13.41.png</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>86.29.14.png</t>
+          <t>85.13.44.png</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>86.29.17.png</t>
+          <t>85.13.5.png</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>86.29.18.png</t>
+          <t>85.13.51.png</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>86.29.19.png</t>
+          <t>85.13.53.png</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>86.29.2(1).png</t>
+          <t>85.13.56.png</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>86.29.2(2).png</t>
+          <t>85.13.58.png</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>86.29.23(1).png</t>
+          <t>85.13.67.png</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>86.29.23.png</t>
+          <t>85.13.7.png</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>86.29.25.png</t>
+          <t>85.13.72.png</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>86.29.26.png</t>
+          <t>85.13.73.png</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>86.29.28.png</t>
+          <t>85.13.83.png</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>86.29.29.png</t>
+          <t>85.22.5.png</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>86.29.34.png</t>
+          <t>85.22.6.png</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>86.29.35.png</t>
+          <t>85.22.7.png</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>86.29.37(2).png</t>
+          <t>85.26.25(1).png</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>86.29.37.png</t>
+          <t>85.26.25(2).png</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>86.29.38(1).png</t>
+          <t>85.26.25(3).png</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>86.29.38(2).JPG</t>
+          <t>85.26.25.png</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>86.29.38(3).JPG</t>
+          <t>85.26.4.png</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>86.29.38.png</t>
+          <t>85.3.1.png</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>86.29.39.png</t>
+          <t>86.28.2(1).png</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>86.29.40.png</t>
+          <t>86.28.2(2).png</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>86.29.41.png</t>
+          <t>86.28.2.png</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>86.29.43(1).png</t>
+          <t>86.29.1.png</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>86.29.43(2).png</t>
+          <t>86.29.11.png</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>86.29.43(3).png</t>
+          <t>86.29.14.png</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>86.29.43(4).png</t>
+          <t>86.29.17.png</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>86.29.43.png</t>
+          <t>86.29.18.png</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>86.29.44.png</t>
+          <t>86.29.19.png</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>86.29.45(1).png</t>
+          <t>86.29.2(1).png</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>86.29.45.png</t>
+          <t>86.29.2(2).png</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>86.29.49(1).png</t>
+          <t>86.29.23(1).png</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>86.29.53(2).png</t>
+          <t>86.29.23.png</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>86.29.53.png</t>
+          <t>86.29.25.png</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>86.3.1.png</t>
+          <t>86.29.26.png</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>86.30.1.png</t>
+          <t>86.29.28.png</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>86.34.1.png</t>
+          <t>86.29.29.png</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>86.39.1(1).png</t>
+          <t>86.29.34.png</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>86.39.1.png</t>
+          <t>86.29.35.png</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>86.39.12.png</t>
+          <t>86.29.37(2).png</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>86.39.16.png</t>
+          <t>86.29.37.png</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>86.39.18.png</t>
+          <t>86.29.38(1).png</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>86.39.2.png</t>
+          <t>86.29.38(2).JPG</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>86.39.20.png</t>
+          <t>86.29.38(3).JPG</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>86.39.21.png</t>
+          <t>86.29.38.png</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>86.39.24.png</t>
+          <t>86.29.39.png</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>86.39.25.png</t>
+          <t>86.29.40.png</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>86.39.26.png</t>
+          <t>86.29.41.png</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>86.39.28.png</t>
+          <t>86.29.43(1).png</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>86.39.29.png</t>
+          <t>86.29.43(2).png</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>86.39.3.png</t>
+          <t>86.29.43(3).png</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>86.39.33(1).png</t>
+          <t>86.29.43(4).png</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>86.39.33(2).png</t>
+          <t>86.29.43.png</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>86.39.33.png</t>
+          <t>86.29.44.png</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>86.39.35.png</t>
+          <t>86.29.45(1).png</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>86.39.36.png</t>
+          <t>86.29.45.png</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>86.39.37.png</t>
+          <t>86.29.49(1).png</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>86.39.38.png</t>
+          <t>86.29.53(2).png</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>86.39.39.png</t>
+          <t>86.29.53.png</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>86.39.40.png</t>
+          <t>86.3.1.png</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>86.39.42.png</t>
+          <t>86.30.1.png</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>86.39.44.png</t>
+          <t>86.34.1.png</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>86.39.5.png</t>
+          <t>86.39.1(1).png</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>86.39.6.png</t>
+          <t>86.39.1.png</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>86.39.9.png</t>
+          <t>86.39.12.png</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>86.41.3.png</t>
+          <t>86.39.16.png</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>86.41.4.png</t>
+          <t>86.39.18.png</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>86.52.1.png</t>
+          <t>86.39.2.png</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>86.52.14.png</t>
+          <t>86.39.20.png</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>86.52.15.png</t>
+          <t>86.39.21.png</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>86.52.16.png</t>
+          <t>86.39.24.png</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>86.52.20.png</t>
+          <t>86.39.25.png</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>86.52.5.png</t>
+          <t>86.39.26.png</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>86.53.28.png</t>
+          <t>86.39.28.png</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>86.9.4(2)(1).png</t>
+          <t>86.39.29.png</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>86.9.4(2).png</t>
+          <t>86.39.3.png</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>86.9.9(1)(1).png</t>
+          <t>86.39.33(1).png</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>86.9.9(1).png</t>
+          <t>86.39.33(2).png</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>86.9.9(2).png</t>
+          <t>86.39.33.png</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>86.9.9.png</t>
+          <t>86.39.35.png</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>87.11.11.png</t>
+          <t>86.39.36.png</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>87.11.13(1).png</t>
+          <t>86.39.37.png</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>87.11.13.png</t>
+          <t>86.39.38.png</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>87.11.16.png</t>
+          <t>86.39.39.png</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>87.11.22(1).png</t>
+          <t>86.39.40.png</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>87.11.22(2).png</t>
+          <t>86.39.42.png</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>87.11.22(3).png</t>
+          <t>86.39.44.png</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>87.11.22.png</t>
+          <t>86.39.5.png</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>87.11.23.png</t>
+          <t>86.39.6.png</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>87.19.1.png</t>
+          <t>86.39.9.png</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>87.19.13.png</t>
+          <t>86.41.3.png</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>87.19.15.png</t>
+          <t>86.41.4.png</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>87.19.2.png</t>
+          <t>86.52.1.png</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>87.19.20.png</t>
+          <t>86.52.14.png</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>87.19.21(1).png</t>
+          <t>86.52.15.png</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>87.19.21(3).png</t>
+          <t>86.52.16.png</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>87.19.21(4).png</t>
+          <t>86.52.20.png</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>87.19.21.png</t>
+          <t>86.52.5.png</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>87.19.23(1).png</t>
+          <t>86.53.28 (1).png</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>87.19.3.png</t>
+          <t>86.53.28.png</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>87.19.30--2.png</t>
+          <t>86.9.4(2)(1).png</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>87.19.30.png</t>
+          <t>86.9.4(2).png</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>87.19.32--2.png</t>
+          <t>86.9.9(1)(1).png</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>87.19.32.png</t>
+          <t>86.9.9(1).png</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>87.19.35(1).png</t>
+          <t>86.9.9(2).png</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>87.19.35.png</t>
+          <t>86.9.9.png</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>87.19.38--2.png</t>
+          <t>87.11.11.png</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>87.19.38.png</t>
+          <t>87.11.13(1).png</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>87.19.40--2.png</t>
+          <t>87.11.13.png</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>87.19.40.png</t>
+          <t>87.11.16.png</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>87.19.41--2.png</t>
+          <t>87.11.22(1).png</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>87.19.41.png</t>
+          <t>87.11.22(2).png</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>87.19.47--2.png</t>
+          <t>87.11.22(3).png</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>87.19.47.png</t>
+          <t>87.11.22.png</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>87.19.5.png</t>
+          <t>87.11.23.png</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>87.19.50.png</t>
+          <t>87.19.1.png</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>87.19.52.png</t>
+          <t>87.19.13.png</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>87.19.53.png</t>
+          <t>87.19.15.png</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>87.19.56.png</t>
+          <t>87.19.2.png</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>87.19.6.png</t>
+          <t>87.19.20.png</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>87.6.1.png</t>
+          <t>87.19.21(1).png</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>88.14.7(2).png</t>
+          <t>87.19.21(3).png</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>88.14.7.png</t>
+          <t>87.19.21(4).png</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>88.17.2(1).png</t>
+          <t>87.19.21.png</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>88.17.2(2).png</t>
+          <t>87.19.23 (1).png</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>88.17.2(3).png</t>
+          <t>87.19.23(1).png</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>88.17.2.png</t>
+          <t>87.19.3.png</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>88.2.1.png</t>
+          <t>87.19.30--2.png</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>88.2.12.png</t>
+          <t>87.19.30.png</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>88.2.14.png</t>
+          <t>87.19.32--2.png</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>88.2.2.png</t>
+          <t>87.19.32.png</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>88.21.1.png</t>
+          <t>87.19.35(1).png</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>88.22.1(1).png</t>
+          <t>87.19.35.png</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>88.22.1(2).png</t>
+          <t>87.19.38--2.png</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>88.24.6.png</t>
+          <t>87.19.38.png</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>88.24.7.png</t>
+          <t>87.19.40--2.png</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>88.24.8.png</t>
+          <t>87.19.40.png</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>88.25.1.png</t>
+          <t>87.19.41--2.png</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>88.3.1.png</t>
+          <t>87.19.41.png</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>88.31.1(2).png</t>
+          <t>87.19.47--2.png</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>88.42.1(2).png</t>
+          <t>87.19.47.png</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>88.44.2.png</t>
+          <t>87.19.5.png</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>88.47.1(1).png</t>
+          <t>87.19.50.png</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>88.47.1.png</t>
+          <t>87.19.52.png</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>88.9.2.png</t>
+          <t>87.19.53.png</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>89.1.21.png</t>
+          <t>87.19.56.png</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>89.1.32(1).png</t>
+          <t>87.19.6.png</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>89.1.32(2).png</t>
+          <t>87.6.1.png</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>89.11.1.png</t>
+          <t>88.14.7(2).png</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>89.12.2(3).png</t>
+          <t>88.14.7.png</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>89.19.2.png</t>
+          <t>88.17.2(1).png</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>89.22.1(2)(1).png</t>
+          <t>88.17.2(2).png</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>89.22.1(2)(2).png</t>
+          <t>88.17.2(3).png</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>89.22.1(2)(3).png</t>
+          <t>88.17.2.png</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>89.22.1(2).png</t>
+          <t>88.2.1.png</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>89.30.100.png</t>
+          <t>88.2.12.png</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>89.30.101(1).png</t>
+          <t>88.2.14.png</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>89.30.101(2).png</t>
+          <t>88.2.2.png</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>89.30.101.png</t>
+          <t>88.21.1.png</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>89.30.102.png</t>
+          <t>88.22.1(1).png</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>89.30.103.png</t>
+          <t>88.22.1(2).png</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>89.30.104.png</t>
+          <t>88.24.6.png</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>89.30.105.png</t>
+          <t>88.24.7.png</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>89.30.108.png</t>
+          <t>88.24.8.png</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>89.30.109.png</t>
+          <t>88.25.1.png</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>89.30.112(2).png</t>
+          <t>88.3.1.png</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>89.30.112.png</t>
+          <t>88.31.1(2).png</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>89.30.113(2).png</t>
+          <t>88.31.2(1)(2).png</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>89.30.113.png</t>
+          <t>88.42.1(2).png</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>89.30.115(1).png</t>
+          <t>88.44.2.png</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>89.30.115(2).png</t>
+          <t>88.47.1(1).png</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>89.30.116.png</t>
+          <t>88.47.1.png</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>89.30.117.png</t>
+          <t>88.9.2.png</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>89.30.118.png</t>
+          <t>89.1.21.png</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>89.30.12.png</t>
+          <t>89.1.32(1).png</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>89.30.120.png</t>
+          <t>89.1.32(2).png</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>89.30.121(1).png</t>
+          <t>89.11.1.png</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>89.30.121(2).png</t>
+          <t>89.12.2 (3).png</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>89.30.121(3).png</t>
+          <t>89.12.2(3).png</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>89.30.121(4).png</t>
+          <t>89.19.2(1).png</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>89.30.121(5).png</t>
+          <t>89.19.2.png</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>89.30.121(6).png</t>
+          <t>89.22.1(2)(1).png</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>89.30.121(7).png</t>
+          <t>89.22.1(2)(2).png</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>89.30.121(8).png</t>
+          <t>89.22.1(2)(3).png</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>89.30.122.png</t>
+          <t>89.22.1(2).png</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>89.30.126.png</t>
+          <t>89.30.100.png</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>89.30.127.png</t>
+          <t>89.30.101(1).png</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>89.30.13.png</t>
+          <t>89.30.101(2).png</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>89.30.133.png</t>
+          <t>89.30.101.png</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>89.30.139.png</t>
+          <t>89.30.102.png</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>89.30.14.png</t>
+          <t>89.30.103.png</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>89.30.17.png</t>
+          <t>89.30.104.png</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>89.30.18.png</t>
+          <t>89.30.105.png</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>89.30.20.png</t>
+          <t>89.30.108.png</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>89.30.25(2).png</t>
+          <t>89.30.109.png</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>89.30.25.png</t>
+          <t>89.30.112(2).png</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>89.30.26.png</t>
+          <t>89.30.112.png</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>89.30.27(2).png</t>
+          <t>89.30.113(2).png</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>89.30.28.png</t>
+          <t>89.30.113.png</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>89.30.30(1)--2.png</t>
+          <t>89.30.115(1).png</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>89.30.30(1).png</t>
+          <t>89.30.115(2).png</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>89.30.30(2)(1).png</t>
+          <t>89.30.116.png</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>89.30.30(2).png</t>
+          <t>89.30.117.png</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>89.30.36.png</t>
+          <t>89.30.118.png</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>89.30.37.png</t>
+          <t>89.30.12.png</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>89.30.38.png</t>
+          <t>89.30.120.png</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>89.30.41.png</t>
+          <t>89.30.121(1).png</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>89.30.42.png</t>
+          <t>89.30.121(2).png</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>89.30.47.png</t>
+          <t>89.30.121(3).png</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>89.30.5.png</t>
+          <t>89.30.121(4).png</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>89.30.51(1).png</t>
+          <t>89.30.121(5).png</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>89.30.51(2).png</t>
+          <t>89.30.121(6).png</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>89.30.52(1).png</t>
+          <t>89.30.121(7).png</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>89.30.52(2).png</t>
+          <t>89.30.121(8).png</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>89.30.53(1).png</t>
+          <t>89.30.122.png</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>89.30.53(2).png</t>
+          <t>89.30.125.png</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>89.30.54.png</t>
+          <t>89.30.126.png</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>89.30.61.png</t>
+          <t>89.30.127.png</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>89.30.64.png</t>
+          <t>89.30.13.png</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>89.30.67.png</t>
+          <t>89.30.133.png</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>89.30.68.png</t>
+          <t>89.30.139.png</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>89.30.69.png</t>
+          <t>89.30.14.png</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>89.30.70.png</t>
+          <t>89.30.17.png</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>89.30.71.png</t>
+          <t>89.30.18.png</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>89.30.75.png</t>
+          <t>89.30.20.png</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>89.30.76.png</t>
+          <t>89.30.25(1).png</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>89.30.77.png</t>
+          <t>89.30.25(2).png</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>89.30.78.png</t>
+          <t>89.30.25.png</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>89.30.80.png</t>
+          <t>89.30.26.png</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>89.30.81.png</t>
+          <t>89.30.27(1).png</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>89.30.82.png</t>
+          <t>89.30.27(2).png</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>89.30.83.png</t>
+          <t>89.30.28.png</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>89.30.84.png</t>
+          <t>89.30.29.png</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>89.30.88.png</t>
+          <t>89.30.30 (2) (1).png</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>89.30.90.png</t>
+          <t>89.30.30(1)--2.png</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>89.30.92.png</t>
+          <t>89.30.30(1).png</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>89.30.95.png</t>
+          <t>89.30.30(2)(1).png</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>89.30.96.png</t>
+          <t>89.30.30(2).png</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>89.30.97.png</t>
+          <t>89.30.36.png</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>89.30.98.png</t>
+          <t>89.30.37.png</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>89.35.1.png</t>
+          <t>89.30.38.png</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>89.38.1.png</t>
+          <t>89.30.41.png</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>89.43.2.png</t>
+          <t>89.30.42.png</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>90.0.10.png</t>
+          <t>89.30.47.png</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>90.0.14.png</t>
+          <t>89.30.5.png</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>90.0.29.png</t>
+          <t>89.30.51(1).png</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>90.0.33.png</t>
+          <t>89.30.51(2).png</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>90.1.140(2).png</t>
+          <t>89.30.52 (2).png</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>90.1.168.png</t>
+          <t>89.30.52(1).png</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>90.1.169.png</t>
+          <t>89.30.52(2).png</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>90.1.170.png</t>
+          <t>89.30.53(1).png</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>90.1.172.png</t>
+          <t>89.30.53(2).png</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>90.1.181.png</t>
+          <t>89.30.54.png</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>90.1.186.png</t>
+          <t>89.30.61.png</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>90.1.187(3).png</t>
+          <t>89.30.64.png</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>90.1.19.png</t>
+          <t>89.30.67.png</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>90.1.212.png</t>
+          <t>89.30.68.png</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>90.1.50.png</t>
+          <t>89.30.69.png</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>90.1.52.png</t>
+          <t>89.30.70.png</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>90.1.63.png</t>
+          <t>89.30.71.png</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>90.1.90.png</t>
+          <t>89.30.75.png</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>91.0.30.png</t>
+          <t>89.30.76.png</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>91.0.8.png</t>
+          <t>89.30.77.png</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>91.1.2.png</t>
+          <t>89.30.78.png</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>91.1.4.png</t>
+          <t>89.30.80.png</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>91.5.2(1).png</t>
+          <t>89.30.81.png</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>91.5.2(2).png</t>
+          <t>89.30.82.png</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>91.5.3(1).png</t>
+          <t>89.30.83.png</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>91.5.3(2).png</t>
+          <t>89.30.84.png</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>92.0.11(1).png</t>
+          <t>89.30.88.png</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>92.0.11(2).png</t>
+          <t>89.30.90.png</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>92.0.11(3).png</t>
+          <t>89.30.92.png</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>92.0.12.png</t>
+          <t>89.30.95.png</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>92.0.20.png</t>
+          <t>89.30.96.png</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>92.0.27.png</t>
+          <t>89.30.97.png</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>92.0.29.png</t>
+          <t>89.30.98.png</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>92.0.74.png</t>
+          <t>89.35.1.png</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>92.1.49.png</t>
+          <t>89.38.1.png</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>92.2.101.png</t>
+          <t>89.43.2.png</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>92.2.102.png</t>
+          <t>90.0.10.png</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>92.2.117.png</t>
+          <t>90.0.14.png</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>92.2.118(2).png</t>
+          <t>90.0.29.png</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>92.2.119.png</t>
+          <t>90.0.33.png</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>92.2.124.png</t>
+          <t>90.0.41.png</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>92.2.127.png</t>
+          <t>90.1.140(2).png</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>92.2.128.png</t>
+          <t>90.1.168.png</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>92.2.14.png</t>
+          <t>90.1.169.png</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>92.2.15.png</t>
+          <t>90.1.170.png</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>92.2.18.png</t>
+          <t>90.1.172.png</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>92.2.2.png</t>
+          <t>90.1.181.png</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>92.2.21.png</t>
+          <t>90.1.186.png</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>92.2.23.png</t>
+          <t>90.1.187(3).png</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>92.2.27.png</t>
+          <t>90.1.187.png</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>92.2.3.png</t>
+          <t>90.1.19.png</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>92.2.48.png</t>
+          <t>90.1.212.png</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>92.2.49.png</t>
+          <t>90.1.50.png</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>92.2.56.png</t>
+          <t>90.1.52.png</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>92.2.57.png</t>
+          <t>90.1.63.png</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>92.2.71.png</t>
+          <t>90.1.90.png</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>92.2.72.png</t>
+          <t>91.0.29.png</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>92.2.78.png</t>
+          <t>91.0.30.png</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>92.2.87.png</t>
+          <t>91.0.8.png</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>92.2.98.png</t>
+          <t>91.1.2.png</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>93.0.17.png</t>
+          <t>91.1.4.png</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>93.0.27.png</t>
+          <t>91.5.2(1).png</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>93.0.29.png</t>
+          <t>91.5.2(2).png</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>93.0.49.png</t>
+          <t>91.5.3(1).png</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>93.0.50.png</t>
+          <t>91.5.3(2).png</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>93.0.51.png</t>
+          <t>92.0.11(1).png</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>93.0.53.png</t>
+          <t>92.0.11(2).png</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>93.0.54.png</t>
+          <t>92.0.11(3).png</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>93.0.65.png</t>
+          <t>92.0.12.png</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>93.0.69.png</t>
+          <t>92.0.20.png</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>94.0.108.png</t>
+          <t>92.0.27.png</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>94.0.13(2).png</t>
+          <t>92.0.29.png</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>94.0.15.png</t>
+          <t>92.0.74.png</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>94.0.16.png</t>
+          <t>92.1.49.png</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>94.0.51.png</t>
+          <t>92.2.101.png</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>94.0.57.png</t>
+          <t>92.2.102.png</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>94.0.66.png</t>
+          <t>92.2.117.png</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>94.0.67.png</t>
+          <t>92.2.118(2).png</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>94.0.7.png</t>
+          <t>92.2.119.png</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>94.0.8.png</t>
+          <t>92.2.124.png</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>95.0.23--2.png</t>
+          <t>92.2.127.png</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>95.0.23.png</t>
+          <t>92.2.128.png</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>95.0.25.png</t>
+          <t>92.2.14.png</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>95.0.26.png</t>
+          <t>92.2.15.png</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>95.0.27.png</t>
+          <t>92.2.18.png</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>95.0.28.png</t>
+          <t>92.2.2.png</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>95.3.7.png</t>
+          <t>92.2.21.png</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>96.0.16.png</t>
+          <t>92.2.23.png</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>96.0.17.png</t>
+          <t>92.2.27.png</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>96.0.19.png</t>
+          <t>92.2.3.png</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>96.0.5.png</t>
+          <t>92.2.48.png</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>97.0.43.png</t>
+          <t>92.2.49.png</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>97.0.59.png</t>
+          <t>92.2.56.png</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>97.0.60(1).png</t>
+          <t>92.2.57.png</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>97.0.60(2).png</t>
+          <t>92.2.71.png</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>97.0.61.png</t>
+          <t>92.2.72.png</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>97.0.62.png</t>
+          <t>92.2.78.png</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>98.0.16.png</t>
+          <t>92.2.87.png</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>98.0.2.png</t>
+          <t>92.2.98.png</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>98.0.27.png</t>
+          <t>93.0.17.png</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>98.0.6.png</t>
+          <t>93.0.27.png</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>98.0.7(1).png</t>
+          <t>93.0.29.png</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>99.0.46.png</t>
+          <t>93.0.49.png</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>99.3.10.png</t>
+          <t>93.0.50.png</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>99.3.11.png</t>
+          <t>93.0.51.png</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>99.3.13.png</t>
+          <t>93.0.53.png</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>99.3.14.png</t>
+          <t>93.0.54.png</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>99.3.15.png</t>
+          <t>93.0.65.png</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>99.3.16.png</t>
+          <t>93.0.69.png</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>99.3.22(2).png</t>
+          <t>94.0.108.png</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>99.3.22.png</t>
+          <t>94.0.13(2).png</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>99.3.23.png</t>
+          <t>94.0.15.png</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>99.3.24.png</t>
+          <t>94.0.16.png</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>99.3.27.png</t>
+          <t>94.0.51.png</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>99.3.28.png</t>
+          <t>94.0.57.png</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>99.3.29.png</t>
+          <t>94.0.66.png</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>99.3.36.png</t>
+          <t>94.0.67.png</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>99.3.38.png</t>
+          <t>94.0.7.png</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
+        <is>
+          <t>94.0.8.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>95.0.23--2.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>95.0.23.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>95.0.25.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>95.0.26.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>95.0.27.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>95.0.28.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>95.3.7.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>96.0.16.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>96.0.17.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>96.0.19.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>96.0.5.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>97.0.43.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>97.0.59.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>97.0.60(1).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>97.0.60(2).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>97.0.61.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>97.0.62.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>98.0.16.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>98.0.2.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>98.0.27.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>98.0.6.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>98.0.7(1).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>99.0.46.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>99.3.10.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>99.3.11.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>99.3.13.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>99.3.14.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>99.3.15.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>99.3.16.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>99.3.22(2).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>99.3.22.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>99.3.23.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>99.3.24.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>99.3.27.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>99.3.28.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>99.3.29.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>99.3.36.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>99.3.38.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
         <is>
           <t>99.3.46.png</t>
         </is>
